--- a/Data_preprocess/data.xlsx
+++ b/Data_preprocess/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyt556\PycharmProjects\big_data\xyt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big_Data_Test\Data_preprocess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93367BDA-ABBE-475F-A564-BEBA2682AB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E367FD-55D9-4DA6-9D46-A90C346B89CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="24630" windowHeight="14325" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -518,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,11 +566,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,12 +924,12 @@
       <c r="B3" s="1">
         <v>20.8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -934,10 +938,10 @@
       <c r="B4" s="1">
         <v>14.9</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -946,10 +950,10 @@
       <c r="B5" s="1">
         <v>30.2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -958,10 +962,10 @@
       <c r="B6" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -7046,7 +7050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B731C5B8-8C09-452C-9B01-E58EA1AB877D}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -7088,31 +7092,31 @@
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>86.76</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>12.25</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0.4</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>46.2</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>5.26</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>34.549999999999997</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>3.58</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -7120,31 +7124,31 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>92.52</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>7.32</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0.16</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>47.52</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>3.68</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>37.700000000000003</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>1.95</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>0.59</v>
       </c>
     </row>
@@ -7152,31 +7156,31 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>96.79</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>3.07</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>0.17</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>47.86</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>7.82</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>36.770000000000003</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>1.38</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>0.63</v>
       </c>
     </row>
@@ -7184,31 +7188,31 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>85.56</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>13.03</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>0.94</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.47</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>45.04</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>7.44</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>36.06</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>3.43</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>0.65</v>
       </c>
     </row>
@@ -7216,31 +7220,31 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>87.75</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>10.26</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>1.23</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.76</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>36.22</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>24.29</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>29.25</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>3.23</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -7248,31 +7252,31 @@
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>75.69</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>24.06</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>2.5</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>47.4</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>3.76</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>40</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>0.97</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -7280,31 +7284,31 @@
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>99.21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>0.63</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.16</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>86.62</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>8.8699999999999992</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>31.75</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>2.82</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>0.96</v>
       </c>
     </row>
@@ -7312,31 +7316,31 @@
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>84.5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>14.46</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>1.04</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>46.94</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>14.59</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>37.35</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>0.89</v>
       </c>
     </row>
@@ -7344,31 +7348,31 @@
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>94.14</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>5.86</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>48.66</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>8.41</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>38.42</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>0.51</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>0.67</v>
       </c>
     </row>
@@ -7376,31 +7380,31 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>90.5</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>6.72</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>2.78</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>0</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>35.18</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>1.58</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>30.11</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>0.51</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>0.59</v>
       </c>
     </row>
@@ -7408,31 +7412,31 @@
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>72.05</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>26.49</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1.46</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>49.04</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>5.19</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>39.28</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>0.05</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>0.74</v>
       </c>
     </row>
@@ -7440,31 +7444,31 @@
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>98.1</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>1.71</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>54.22</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>5.79</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>32.04</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1.33</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>0.63</v>
       </c>
     </row>
@@ -7472,31 +7476,31 @@
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>96.35</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>3.13</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>0.26</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>0</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>44.76</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>36.54</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>36.200000000000003</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>0.67</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>0.7</v>
       </c>
     </row>
@@ -7504,31 +7508,31 @@
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>98.48</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>0</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>1.08</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>0.44</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>28.6</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>17.670000000000002</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>24.37</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3.37</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>5.56</v>
       </c>
     </row>
@@ -7536,31 +7540,31 @@
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>88.51</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>2.54</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>4.33</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>49.12</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>25.26</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>18.489999999999998</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>2.46</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>1.07</v>
       </c>
     </row>
@@ -7568,31 +7572,31 @@
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>79.75</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>19.63</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>0</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>53.98</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>8.27</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>24.66</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>4.25</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <v>2.37</v>
       </c>
     </row>
@@ -7600,31 +7604,31 @@
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>94.54</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.76</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>0.31</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>35.64</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>34.81</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>11.18</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>6.5</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <v>0.78</v>
       </c>
     </row>
@@ -7632,31 +7636,31 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>91.51</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>7.88</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>0.61</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>0</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>46.06</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>8.42</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>38.71</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>0.82</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>0.74</v>
       </c>
     </row>
@@ -7664,31 +7668,31 @@
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>90.89</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>3.04</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>0.23</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>1.17</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>62.48</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>25.73</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>0.72</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>0.7</v>
       </c>
     </row>
@@ -7696,31 +7700,31 @@
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>69.790000000000006</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>24.13</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>5.04</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>0</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>47.56</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>10.56</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>37.99</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>0.1</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>1.04</v>
       </c>
     </row>
@@ -7728,31 +7732,31 @@
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>78.47</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>20.6</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>0.75</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>0</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>46.96</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>38.42</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>1.28</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="16">
         <v>1.19</v>
       </c>
     </row>
@@ -7760,31 +7764,31 @@
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>60.71</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>29.28</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>3.58</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>0</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>61.84</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>5.19</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>27.53</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>0.01</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="16">
         <v>0.85</v>
       </c>
     </row>
@@ -7792,31 +7796,31 @@
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>73.03</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>24.09</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>2.88</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>0</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>47.02</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>8.7200000000000006</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>39.42</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>0.1</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="16">
         <v>0.78</v>
       </c>
     </row>
@@ -7824,31 +7828,31 @@
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>86.35</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>4.99</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>8.1199999999999992</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>0</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>33.479999999999997</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>40.15</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>13.98</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <v>4.3</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="16">
         <v>0.63</v>
       </c>
     </row>
@@ -7863,8 +7867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C48EF87-536C-404E-B612-A00B21B00FD4}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7911,40 +7915,40 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="18">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="18">
         <v>11</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="18">
         <v>6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="18">
         <v>51</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="18">
         <v>137</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="18">
         <v>18</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="18">
         <v>56</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="18">
         <v>3</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="18">
         <v>28</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="18">
         <v>1</v>
       </c>
       <c r="M2" s="9">
@@ -7952,40 +7956,36 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="18">
         <v>5.4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="18">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="18">
         <v>14</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="18">
         <v>38</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="18">
         <v>1360</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="18">
         <v>13</v>
       </c>
-      <c r="I3" s="9">
-        <v>91</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="9">
-        <v>21</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18">
         <v>1</v>
       </c>
       <c r="M3" s="9">
@@ -7993,40 +7993,40 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="18">
         <v>3.7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="18">
         <v>16</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="18">
         <v>34</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <v>20</v>
       </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
         <v>8</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="18">
         <v>1</v>
       </c>
       <c r="M4" s="9">
@@ -8034,40 +8034,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="18">
         <v>1.8</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18">
         <v>9</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="18">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="18">
         <v>53</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="18">
         <v>28</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="18">
         <v>5</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="18">
         <v>29</v>
       </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
         <v>13</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="18">
         <v>1</v>
       </c>
       <c r="M5" s="9">
@@ -8075,40 +8075,40 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="18">
         <v>2.8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="18">
         <v>7</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="18">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="18">
         <v>10</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="18">
         <v>107</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="18">
         <v>119</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="18">
         <v>17</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="18">
         <v>30</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="18">
         <v>2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="18">
         <v>15</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="18">
         <v>3</v>
       </c>
       <c r="M6" s="9">
@@ -8116,40 +8116,40 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="18">
         <v>2.9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="18">
         <v>7</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
         <v>7</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="18">
         <v>35</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="18">
         <v>105</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="18">
         <v>7</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="18">
         <v>66</v>
       </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
         <v>32</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="18">
         <v>4</v>
       </c>
       <c r="M7" s="9">
@@ -8157,40 +8157,40 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="18">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="18">
         <v>6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="18">
         <v>55</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="18">
         <v>108</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="18">
         <v>6</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="18">
         <v>26</v>
       </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
         <v>11</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="18">
         <v>3</v>
       </c>
       <c r="M8" s="9">
@@ -8198,40 +8198,40 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="18">
         <v>0.7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="18">
         <v>12</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="18">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="18">
         <v>12</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="18">
         <v>72</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="18">
         <v>234</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="18">
         <v>9</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="18">
         <v>18</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="18">
         <v>2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="18">
         <v>12</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="18">
         <v>1</v>
       </c>
       <c r="M9" s="9">
@@ -8239,40 +8239,40 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="18">
         <v>1.8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="18">
         <v>7</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="18">
         <v>13</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="18">
         <v>6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="18">
         <v>60</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="18">
         <v>77</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="18">
         <v>16</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="18">
         <v>13</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="18">
         <v>4</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="18">
         <v>7</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="18">
         <v>1</v>
       </c>
       <c r="M10" s="9">
@@ -8280,40 +8280,40 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="18">
         <v>1.5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="18">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="18">
         <v>12</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="18">
         <v>8</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="18">
         <v>68</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="18">
         <v>173</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="18">
         <v>13</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="18">
         <v>33</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="18">
         <v>5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="18">
         <v>16</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="18">
         <v>3</v>
       </c>
       <c r="M11" s="9">
@@ -8321,40 +8321,40 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="18">
         <v>1.76</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="18">
         <v>15</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="18">
         <v>10</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="18">
         <v>62</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="18">
         <v>131</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="18">
         <v>8</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="18">
         <v>21</v>
       </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
         <v>17</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="18">
         <v>1</v>
       </c>
       <c r="M12" s="9">
@@ -8362,40 +8362,40 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="18">
         <v>3.5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="18">
         <v>5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="18">
         <v>18</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="18">
         <v>17</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="18">
         <v>102</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="18">
         <v>364</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="18">
         <v>11</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="18">
         <v>25</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="18">
         <v>2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="18">
         <v>18</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="18">
         <v>3</v>
       </c>
       <c r="M13" s="9">
@@ -8403,40 +8403,40 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="18">
         <v>0.6</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="18">
         <v>6</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="18">
         <v>31</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="18">
         <v>17</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="18">
         <v>105</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="18">
         <v>464</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="18">
         <v>11</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="18">
         <v>12</v>
       </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
         <v>15</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="18">
         <v>1</v>
       </c>
       <c r="M14" s="9">
@@ -8444,40 +8444,40 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="18">
         <v>2.6</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="18">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="18">
         <v>26</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="18">
         <v>82</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="18">
         <v>3020</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="18">
         <v>24</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="18">
         <v>53</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="18">
         <v>7</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="18">
         <v>20</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="18">
         <v>1</v>
       </c>
       <c r="M15" s="9">
@@ -8485,40 +8485,40 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="18">
         <v>27.7</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="18">
         <v>11</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="18">
         <v>23</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="18">
         <v>19</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="18">
         <v>62</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="18">
         <v>314</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="18">
         <v>31</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="18">
         <v>31</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="18">
         <v>2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="18">
         <v>22</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="18">
         <v>1</v>
       </c>
       <c r="M16" s="9">
@@ -8526,40 +8526,40 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="18">
         <v>6.6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="18">
         <v>12</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="18">
         <v>21</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="18">
         <v>16</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="18">
         <v>44</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="18">
         <v>387</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="18">
         <v>28</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="18">
         <v>37</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="18">
         <v>2</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="18">
         <v>23</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="18">
         <v>1</v>
       </c>
       <c r="M17" s="9">
@@ -8567,40 +8567,40 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="18">
         <v>5.4</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="18">
         <v>14</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="18">
         <v>24</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="18">
         <v>31</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="18">
         <v>36</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="18">
         <v>1140</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="18">
         <v>45</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="18">
         <v>78</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="18">
         <v>5</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="18">
         <v>27</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="18">
         <v>1</v>
       </c>
       <c r="M18" s="9">
@@ -8608,40 +8608,40 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="18">
         <v>8.6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="18">
         <v>6</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="18">
         <v>42</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="18">
         <v>28</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="18">
         <v>54</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="18">
         <v>286</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="18">
         <v>50</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="18">
         <v>24</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="18">
         <v>6</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="18">
         <v>15</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="18">
         <v>6</v>
       </c>
       <c r="M19" s="9">
@@ -8649,40 +8649,40 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="18">
         <v>12</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="18">
         <v>19</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="18">
         <v>13</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="18">
         <v>111</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="18">
         <v>242</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="18">
         <v>20</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="18">
         <v>51</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="18">
         <v>2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="18">
         <v>39</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="18">
         <v>7</v>
       </c>
       <c r="M20" s="9">
@@ -8690,40 +8690,40 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="18">
         <v>3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="18">
         <v>5</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="18">
         <v>4</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="18">
         <v>12</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="18">
         <v>1020</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="18">
         <v>3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="18">
         <v>5</v>
       </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
         <v>6</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="18">
         <v>11</v>
       </c>
       <c r="M21" s="9">
@@ -8731,40 +8731,40 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="18">
         <v>174</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="18">
         <v>36</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="18">
         <v>74</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="18">
         <v>35</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="18">
         <v>127</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="18">
         <v>219</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="18">
         <v>74</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="18">
         <v>63</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="18">
         <v>3</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="18">
         <v>71</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="18">
         <v>21</v>
       </c>
       <c r="M22" s="9">
@@ -8772,40 +8772,40 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="18">
         <v>6.4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="18">
         <v>6</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="18">
         <v>29</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="18">
         <v>17</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="18">
         <v>90</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="18">
         <v>865</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="18">
         <v>29</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="18">
         <v>27</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="18">
         <v>3</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="18">
         <v>23</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="18">
         <v>4</v>
       </c>
       <c r="M23" s="9">
@@ -8813,40 +8813,40 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="18">
         <v>5</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="18">
         <v>28</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="18">
         <v>16</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="18">
         <v>78</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="18">
         <v>103</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="18">
         <v>28</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="18">
         <v>22</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="18">
         <v>3</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="18">
         <v>17</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="18">
         <v>32</v>
       </c>
       <c r="M24" s="9">
@@ -8854,40 +8854,40 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="18">
         <v>0.4</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="18">
         <v>7</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="18">
         <v>14</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="18">
         <v>18</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="18">
         <v>144</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="18">
         <v>245</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="18">
         <v>14</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="18">
         <v>18</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="18">
         <v>2</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="18">
         <v>15</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="18">
         <v>1</v>
       </c>
       <c r="M25" s="9">
@@ -8895,40 +8895,40 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="18">
         <v>0.8</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="18">
         <v>10</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="18">
         <v>12</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="18">
         <v>13</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="18">
         <v>86</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="18">
         <v>317</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="18">
         <v>12</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="18">
         <v>55</v>
       </c>
-      <c r="J26" s="9">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="18">
         <v>26</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="18">
         <v>1</v>
       </c>
       <c r="M26" s="9">
@@ -8936,40 +8936,40 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="18">
         <v>2.8</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="18">
         <v>12</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="18">
         <v>21</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="18">
         <v>10</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="18">
         <v>89</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="18">
         <v>40</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="18">
         <v>21</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="18">
         <v>33</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="18">
         <v>2</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="18">
         <v>35</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="18">
         <v>8</v>
       </c>
       <c r="M27" s="9">
@@ -8977,40 +8977,40 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
         <v>10</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="18">
         <v>10</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="18">
         <v>17</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="18">
         <v>136</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="18">
         <v>245</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="18">
         <v>110</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="18">
         <v>57</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="18">
         <v>3</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="18">
         <v>33</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="18">
         <v>1</v>
       </c>
       <c r="M28" s="9">
@@ -9018,40 +9018,40 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="18">
         <v>2.5</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="18">
         <v>20</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="18">
         <v>9</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="18">
         <v>15</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="18">
         <v>57</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="18">
         <v>477</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="18">
         <v>9</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="18">
         <v>31</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="18">
         <v>3</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="18">
         <v>17</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="18">
         <v>1</v>
       </c>
       <c r="M29" s="9">
@@ -9059,40 +9059,40 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="18">
         <v>1.5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="18">
         <v>4</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="18">
         <v>11</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="18">
         <v>17</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="18">
         <v>34</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="18">
         <v>1340</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="18">
         <v>11</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="18">
         <v>22</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="18">
         <v>3</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="18">
         <v>10</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="18">
         <v>1</v>
       </c>
       <c r="M30" s="9">
@@ -9100,40 +9100,40 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="18">
         <v>1.5</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="18">
         <v>16</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="18">
         <v>9</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="18">
         <v>7</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="18">
         <v>63</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="18">
         <v>52</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="18">
         <v>9</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="18">
         <v>22</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="18">
         <v>3</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="18">
         <v>12</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="18">
         <v>1</v>
       </c>
       <c r="M31" s="9">
@@ -9141,40 +9141,40 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="18">
         <v>2.4</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="18">
         <v>9</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="18">
         <v>16</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="18">
         <v>7</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="18">
         <v>95</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="18">
         <v>90</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="18">
         <v>16</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="18">
         <v>34</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="18">
         <v>4</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="18">
         <v>10</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="18">
         <v>1</v>
       </c>
       <c r="M32" s="9">
@@ -9182,40 +9182,40 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="18">
         <v>7</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="18">
         <v>12</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="18">
         <v>7</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="18">
         <v>44</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="18">
         <v>42</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="18">
         <v>12</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="18">
         <v>13</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="18">
         <v>4</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="18">
         <v>12</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="18">
         <v>1</v>
       </c>
       <c r="M33" s="9">
@@ -9223,40 +9223,40 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="18">
         <v>4.2</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="18">
         <v>7</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="18">
         <v>22</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="18">
         <v>7</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="18">
         <v>67</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="18">
         <v>46</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="18">
         <v>22</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="18">
         <v>26</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="18">
         <v>6</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="18">
         <v>18</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="18">
         <v>1</v>
       </c>
       <c r="M34" s="9">
@@ -9264,40 +9264,40 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="18">
         <v>2.9</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="18">
         <v>8</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="18">
         <v>11</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="18">
         <v>8</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="18">
         <v>121</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="18">
         <v>52</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="18">
         <v>11</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="18">
         <v>20</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="18">
         <v>4</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="18">
         <v>13</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="18">
         <v>1</v>
       </c>
       <c r="M35" s="9">
@@ -9305,40 +9305,40 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="18">
         <v>1.2</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="18">
         <v>6</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="18">
         <v>15</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="18">
         <v>9</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="18">
         <v>77</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="18">
         <v>222</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="18">
         <v>15</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="18">
         <v>30</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="18">
         <v>5</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="18">
         <v>16</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="18">
         <v>1</v>
       </c>
       <c r="M36" s="9">
@@ -9346,40 +9346,40 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="18">
         <v>2.1</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="18">
         <v>5</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="18">
         <v>7</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="18">
         <v>12</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="18">
         <v>67</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="18">
         <v>125</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="18">
         <v>10</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="18">
         <v>12</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="18">
         <v>8</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="18">
         <v>7</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="18">
         <v>1</v>
       </c>
       <c r="M37" s="9">
@@ -9387,40 +9387,40 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="18">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18">
         <v>8</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="18">
         <v>12</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="18">
         <v>16</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="18">
         <v>213</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="18">
         <v>336</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="18">
         <v>7</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="18">
         <v>29</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="18">
         <v>2</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="18">
         <v>16</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="18">
         <v>1</v>
       </c>
       <c r="M38" s="9">
@@ -9428,40 +9428,40 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="18">
         <v>7.3</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="18">
         <v>9</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="18">
         <v>11</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="18">
         <v>10</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="18">
         <v>130</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="18">
         <v>15</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="18">
         <v>23</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="18">
         <v>38</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="18">
         <v>4</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="18">
         <v>19</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="18">
         <v>1</v>
       </c>
       <c r="M39" s="9">
@@ -9469,40 +9469,40 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="18">
         <v>1.5</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="18">
         <v>5</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="18">
         <v>9</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="18">
         <v>6</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="18">
         <v>99</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="18">
         <v>107</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="18">
         <v>6</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="18">
         <v>17</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="18">
         <v>3</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="18">
         <v>9</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="18">
         <v>1</v>
       </c>
       <c r="M40" s="9">
@@ -9510,40 +9510,40 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="18">
         <v>8</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="18">
         <v>26</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="18">
         <v>8</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="18">
         <v>78</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="18">
         <v>65</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="18">
         <v>38</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="18">
         <v>21</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="18">
         <v>2</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="18">
         <v>17</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="18">
         <v>4</v>
       </c>
       <c r="M41" s="9">
@@ -9551,40 +9551,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="18">
         <v>15.8</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="18">
         <v>4</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="18">
         <v>24</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="18">
         <v>6</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="18">
         <v>58</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="18">
         <v>26</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="18">
         <v>12</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="18">
         <v>12</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="18">
         <v>9</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="18">
         <v>11</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="18">
         <v>4</v>
       </c>
       <c r="M42" s="9">
@@ -9592,40 +9592,40 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="18">
         <v>5.5</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="18">
         <v>9</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="18">
         <v>11</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="18">
         <v>17</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="18">
         <v>117</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="18">
         <v>689</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="18">
         <v>6</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="18">
         <v>44</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="18">
         <v>3</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="18">
         <v>19</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="18">
         <v>1</v>
       </c>
       <c r="M43" s="9">
@@ -9633,40 +9633,40 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="18">
         <v>7.3</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="18">
         <v>12</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="18">
         <v>22</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="18">
         <v>23</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="18">
         <v>72</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="18">
         <v>453</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="18">
         <v>14</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="18">
         <v>69</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="18">
         <v>2</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="18">
         <v>29</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="18">
         <v>1</v>
       </c>
       <c r="M44" s="9">
@@ -9674,40 +9674,40 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="18">
         <v>0.5</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="18">
         <v>5</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="18">
         <v>7</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="18">
         <v>7</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="18">
         <v>78</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="18">
         <v>207</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="18">
         <v>6</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="18">
         <v>14</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="18">
         <v>2</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="18">
         <v>8</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="18">
         <v>1</v>
       </c>
       <c r="M45" s="9">
@@ -9715,40 +9715,40 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="18">
         <v>1.5</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="18">
         <v>12</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="18">
         <v>22</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="18">
         <v>18</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="18">
         <v>109</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="18">
         <v>749</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="18">
         <v>29</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="18">
         <v>64</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="18">
         <v>2</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="18">
         <v>44</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="18">
         <v>1</v>
       </c>
       <c r="M46" s="9">
@@ -9756,40 +9756,40 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="18">
         <v>2.1</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="18">
         <v>7</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="18">
         <v>6</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="18">
         <v>8</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="18">
         <v>81</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="18">
         <v>72</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="18">
         <v>6</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="18">
         <v>24</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="18">
         <v>2</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="18">
         <v>18</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="18">
         <v>1</v>
       </c>
       <c r="M47" s="9">
@@ -9797,40 +9797,40 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="18">
         <v>0.9</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="18">
         <v>5</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="18">
         <v>3</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="18">
         <v>5</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="18">
         <v>47</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="18">
         <v>48</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="18">
         <v>3</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="18">
         <v>36</v>
       </c>
-      <c r="J48" s="9">
-        <v>1</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="J48" s="18">
+        <v>1</v>
+      </c>
+      <c r="K48" s="18">
         <v>17</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="18">
         <v>1</v>
       </c>
       <c r="M48" s="9">
@@ -9838,40 +9838,40 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="18">
         <v>1.3</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="18">
         <v>4</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="18">
         <v>8</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="18">
         <v>7</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="18">
         <v>66</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="18">
         <v>141</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="18">
         <v>8</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="18">
         <v>30</v>
       </c>
-      <c r="J49" s="9">
-        <v>1</v>
-      </c>
-      <c r="K49" s="9">
+      <c r="J49" s="18">
+        <v>1</v>
+      </c>
+      <c r="K49" s="18">
         <v>16</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="18">
         <v>1</v>
       </c>
       <c r="M49" s="9">
@@ -9879,40 +9879,40 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="18">
         <v>3.4</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="18">
         <v>8</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="18">
         <v>7</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="18">
         <v>4</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="18">
         <v>40</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="18">
         <v>78</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="18">
         <v>6</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="18">
         <v>12</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="18">
         <v>2</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="18">
         <v>6</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="18">
         <v>1</v>
       </c>
       <c r="M50" s="9">
@@ -9920,40 +9920,40 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="18">
         <v>2.7</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="18">
         <v>7</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="18">
         <v>9</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="18">
         <v>10</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="18">
         <v>66</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="18">
         <v>287</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="18">
         <v>14</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="18">
         <v>19</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="18">
         <v>4</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="18">
         <v>10</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="18">
         <v>1</v>
       </c>
       <c r="M51" s="9">
@@ -9961,40 +9961,40 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="9">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="18">
         <v>3.5</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="18">
         <v>14</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="18">
         <v>10</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="18">
         <v>13</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="18">
         <v>58</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="18">
         <v>280</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="18">
         <v>7</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="18">
         <v>56</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="18">
         <v>3</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="18">
         <v>28</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="18">
         <v>1</v>
       </c>
       <c r="M52" s="9">
@@ -10002,40 +10002,40 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="18">
         <v>1.4</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="18">
         <v>5</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="18">
         <v>7</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="18">
         <v>4</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="18">
         <v>97</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="18">
         <v>33</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="18">
         <v>7</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="18">
         <v>14</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="18">
         <v>3</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="18">
         <v>5</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="18">
         <v>1</v>
       </c>
       <c r="M53" s="9">
@@ -10043,40 +10043,40 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="18">
         <v>0.4</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="18">
         <v>9</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="18">
         <v>11</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="18">
         <v>15</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="18">
         <v>106</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="18">
         <v>370</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="18">
         <v>8</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="18">
         <v>20</v>
       </c>
-      <c r="J54" s="9">
-        <v>1</v>
-      </c>
-      <c r="K54" s="9">
+      <c r="J54" s="18">
+        <v>1</v>
+      </c>
+      <c r="K54" s="18">
         <v>12</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="18">
         <v>1</v>
       </c>
       <c r="M54" s="9">
@@ -10084,40 +10084,40 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+      <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="18">
         <v>1.6</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="18">
         <v>12</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="18">
         <v>10</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="18">
         <v>21</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="18">
         <v>63</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="18">
         <v>5860</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="18">
         <v>8</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="18">
         <v>31</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="18">
         <v>2</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="18">
         <v>16</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="18">
         <v>1</v>
       </c>
       <c r="M55" s="9">
@@ -10125,40 +10125,40 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
+      <c r="A56" s="18">
         <v>55</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="18">
         <v>15.3</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="18">
         <v>8</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="18">
         <v>13</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="18">
         <v>11</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="18">
         <v>47</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="18">
         <v>278</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="18">
         <v>12</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="18">
         <v>51</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="18">
         <v>5</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="18">
         <v>26</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="18">
         <v>1</v>
       </c>
       <c r="M56" s="9">
@@ -10166,40 +10166,40 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="18">
         <v>10.9</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="18">
         <v>7</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="18">
         <v>11</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="18">
         <v>5</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="18">
         <v>80</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="18">
         <v>23</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="18">
         <v>6</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="18">
         <v>24</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="18">
         <v>2</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="18">
         <v>15</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="18">
         <v>1</v>
       </c>
       <c r="M57" s="9">
@@ -10207,40 +10207,40 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="18">
         <v>1.7</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="18">
         <v>4</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="18">
         <v>10</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="18">
         <v>6</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="18">
         <v>58</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="18">
         <v>36</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="18">
         <v>9</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="18">
         <v>14</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="18">
         <v>2</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="18">
         <v>8</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="18">
         <v>2</v>
       </c>
       <c r="M58" s="9">
@@ -10248,40 +10248,40 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="18">
         <v>3.2</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="18">
         <v>11</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="18">
         <v>13</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="18">
         <v>18</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="18">
         <v>59</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="18">
         <v>539</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="18">
         <v>15</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="18">
         <v>29</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="18">
         <v>3</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="18">
         <v>17</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="18">
         <v>1</v>
       </c>
       <c r="M59" s="9">
@@ -10289,40 +10289,40 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="18">
         <v>2.1</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="18">
         <v>6</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="18">
         <v>14</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="18">
         <v>8</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="18">
         <v>119</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="18">
         <v>32</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="18">
         <v>11</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="18">
         <v>19</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="18">
         <v>3</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="18">
         <v>10</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="18">
         <v>1</v>
       </c>
       <c r="M60" s="9">
@@ -10330,40 +10330,40 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="18">
         <v>9.5</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="18">
         <v>8</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="18">
         <v>14</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="18">
         <v>8</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="18">
         <v>59</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="18">
         <v>67</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="18">
         <v>15</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="18">
         <v>27</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="18">
         <v>4</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="18">
         <v>18</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="18">
         <v>1</v>
       </c>
       <c r="M61" s="9">
@@ -10371,40 +10371,40 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="18">
         <v>2</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="18">
         <v>6</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="18">
         <v>11</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="18">
         <v>7</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="18">
         <v>54</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="18">
         <v>94</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="18">
         <v>20</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="18">
         <v>20</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="18">
         <v>3</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="18">
         <v>10</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="18">
         <v>1</v>
       </c>
       <c r="M62" s="9">
@@ -10412,40 +10412,40 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="18">
         <v>1.2</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="18">
         <v>5</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="18">
         <v>8</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="18">
         <v>6</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="18">
         <v>87</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="18">
         <v>123</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="18">
         <v>6</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="18">
         <v>20</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="18">
         <v>3</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="18">
         <v>8</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="18">
         <v>2</v>
       </c>
       <c r="M63" s="9">
@@ -10453,40 +10453,40 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
+      <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="18">
         <v>10.5</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="18">
         <v>18</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="18">
         <v>29</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="18">
         <v>29</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="18">
         <v>94</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="18">
         <v>4960</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="18">
         <v>32</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="18">
         <v>99</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="18">
         <v>4</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="18">
         <v>34</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="18">
         <v>1</v>
       </c>
       <c r="M64" s="9">
@@ -10494,40 +10494,40 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="18">
         <v>4.3</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="18">
         <v>8</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="18">
         <v>17</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="18">
         <v>16</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="18">
         <v>79</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="18">
         <v>255</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="18">
         <v>21</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="18">
         <v>98</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="18">
         <v>3</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="18">
         <v>53</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="18">
         <v>1</v>
       </c>
       <c r="M65" s="9">
@@ -10535,40 +10535,40 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="18">
         <v>6</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="18">
         <v>12</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="18">
         <v>7</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="18">
         <v>147</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="18">
         <v>50</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="18">
         <v>9</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="18">
         <v>15</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="18">
         <v>6</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="18">
         <v>8</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="18">
         <v>1</v>
       </c>
       <c r="M66" s="9">
@@ -10576,40 +10576,40 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="18">
         <v>6.9</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="18">
         <v>4</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="18">
         <v>8</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="18">
         <v>5</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="18">
         <v>50</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="18">
         <v>36</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="18">
         <v>7</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="18">
         <v>18</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="18">
         <v>7</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="18">
         <v>6</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="18">
         <v>1</v>
       </c>
       <c r="M67" s="9">
@@ -10617,40 +10617,40 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="18">
         <v>1.4</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="18">
         <v>9</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="18">
         <v>12</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="18">
         <v>9</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="18">
         <v>54</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="18">
         <v>141</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="18">
         <v>11</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="18">
         <v>31</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="18">
         <v>6</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="18">
         <v>12</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="18">
         <v>1</v>
       </c>
       <c r="M68" s="9">
@@ -10658,40 +10658,40 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="9">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="18">
         <v>10</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="18">
         <v>12</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="18">
         <v>8</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="18">
         <v>84</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="18">
         <v>77</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="18">
         <v>11</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="18">
         <v>16</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="18">
         <v>5</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="18">
         <v>8</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L69" s="18">
         <v>1</v>
       </c>
       <c r="M69" s="9">
@@ -10699,40 +10699,40 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="9">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="18">
         <v>4.2</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="18">
         <v>5</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="18">
         <v>10</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="18">
         <v>6</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="18">
         <v>72</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="18">
         <v>215</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="18">
         <v>18</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="18">
         <v>14</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="18">
         <v>3</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="18">
         <v>8</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L70" s="18">
         <v>1</v>
       </c>
       <c r="M70" s="9">
@@ -10740,40 +10740,40 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="9">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="18">
         <v>14.1</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="18">
         <v>13</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="18">
         <v>21</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="18">
         <v>13</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="18">
         <v>75</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="18">
         <v>231</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="18">
         <v>28</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="18">
         <v>36</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="18">
         <v>9</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="18">
         <v>17</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L71" s="18">
         <v>1</v>
       </c>
       <c r="M71" s="9">
@@ -10781,40 +10781,40 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A72" s="9">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="18">
         <v>69</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="18">
         <v>30</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="18">
         <v>33</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="18">
         <v>16</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="18">
         <v>83</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="18">
         <v>199</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="18">
         <v>37</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="18">
         <v>28</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="18">
         <v>3</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="18">
         <v>26</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="18">
         <v>2</v>
       </c>
       <c r="M72" s="9">
@@ -10824,5 +10824,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>